--- a/Synaptophysin_Image_Analysis/Lacex_summary_101119_recover_old_T1Lin10_1.xlsx
+++ b/Synaptophysin_Image_Analysis/Lacex_summary_101119_recover_old_T1Lin10_1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Documents\MATLAB\Synaptophysin_Image_Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{485AB1F8-9CBF-407F-9D0E-BBF303F482B4}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD963B2D-4D5D-42DA-AD6A-946E98596736}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{1EC6F960-15EA-44B1-9D05-79A95A2ECB7E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1EC6F960-15EA-44B1-9D05-79A95A2ECB7E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3153,16 +3153,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3189,16 +3189,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>465772</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>160972</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>75247</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>46672</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>160972</xdr:colOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>380047</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>6667</xdr:rowOff>
+      <xdr:rowOff>82867</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3561,13 +3561,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DEE643D-B5B6-47ED-8E42-351E3104DFEB}">
   <dimension ref="A1:AB88"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J52" sqref="J52:M52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>48.120984953048456</v>
       </c>
@@ -3623,7 +3623,7 @@
         <v>0.13102545914519406</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>50.67957943089678</v>
       </c>
@@ -3679,7 +3679,7 @@
         <v>7.8981923120655967E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>49.102731458955468</v>
       </c>
@@ -3735,7 +3735,7 @@
         <v>8.6621755257359198E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>49.945779506146657</v>
       </c>
@@ -3791,7 +3791,7 @@
         <v>0.18659716443318902</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>49.415395057657321</v>
       </c>
@@ -3880,7 +3880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>49.325685732126558</v>
       </c>
@@ -3966,7 +3966,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>49.132666369394151</v>
       </c>
@@ -4022,7 +4022,7 @@
         <v>9.1226810097630825E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>48.970202812975153</v>
       </c>
@@ -4078,7 +4078,7 @@
         <v>0.21084618650915302</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>49.835297628607229</v>
       </c>
@@ -4134,7 +4134,7 @@
         <v>0.19874333145855461</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>50.999999999896758</v>
       </c>
@@ -4190,7 +4190,7 @@
         <v>0.13765830942996976</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>50.999828193429515</v>
       </c>
@@ -4246,7 +4246,7 @@
         <v>0.1460867050740462</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>50.112425925844882</v>
       </c>
@@ -4302,7 +4302,7 @@
         <v>0.25541943659005106</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>50.170242659225302</v>
       </c>
@@ -4358,7 +4358,7 @@
         <v>0.32512088683260287</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>50.75299019407332</v>
       </c>
@@ -4414,7 +4414,7 @@
         <v>0.12642485426608485</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>50.898524719234672</v>
       </c>
@@ -4470,7 +4470,7 @@
         <v>0.33747169578899461</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>49.75044402499217</v>
       </c>
@@ -4526,7 +4526,7 @@
         <v>0.2469506910384639</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="I17">
         <f>_xlfn.IFS(ABS(1/A1-T$5)&lt;=0.001*(1/A1),"Lower",ABS(1/A1-T$6)&lt;=0.001*(1/A1),"Upper",TRUE,1)</f>
         <v>1</v>
@@ -4564,7 +4564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>0</v>
       </c>
@@ -4614,7 +4614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>4</v>
       </c>
@@ -4671,7 +4671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B20">
         <f>STDEV(A$1:A$3)/SQRT(COUNT(A$1:A$3))</f>
         <v>0.74523230645633032</v>
@@ -4729,7 +4729,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="I21">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -4771,7 +4771,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>0</v>
       </c>
@@ -4829,7 +4829,7 @@
         <v>13.002493831199304</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23">
         <f>STDEV(B5:B16)/SQRT(12)</f>
         <v>7.0440582445962345E-3</v>
@@ -4890,7 +4890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C24">
         <f>STDEV(B$1:B$3)/SQRT(COUNT(B$1:B$3))</f>
         <v>1.3629977015669671E-4</v>
@@ -4944,7 +4944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="I25">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -4982,7 +4982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="D26" t="s">
         <v>0</v>
       </c>
@@ -5032,7 +5032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>7</v>
       </c>
@@ -5089,7 +5089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="D28">
         <f>STDEV(C$1:C$3)/SQRT(COUNT(C$1:C$3))</f>
         <v>3.4764594538874038E-2</v>
@@ -5143,7 +5143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="I29">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -5181,7 +5181,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="E30" t="s">
         <v>0</v>
       </c>
@@ -5231,7 +5231,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C31">
         <f>STDEV(D5:D16)/SQRT(12)</f>
         <v>1.8372574647660949</v>
@@ -5292,7 +5292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A32">
         <f>MIN(D5:D14)</f>
         <v>10.790305101307728</v>
@@ -5350,13 +5350,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33">
         <f>MAX(G5:G14)</f>
         <v>37.653887404528874</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F34" t="s">
         <v>0</v>
       </c>
@@ -5370,7 +5370,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E35" t="s">
         <v>9</v>
       </c>
@@ -5391,7 +5391,7 @@
         <v>1.7216270656267071E-4</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F36">
         <f>STDEV(E$1:E$3)/SQRT(COUNT(E$1:E$3))</f>
         <v>4.8249100905145884E-18</v>
@@ -5409,7 +5409,7 @@
         <v>1.6636651798596555E-4</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G38" t="s">
         <v>0</v>
       </c>
@@ -5423,7 +5423,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E39">
         <f>STDEV(F5:F16)/SQRT(12)</f>
         <v>0.27649619668311398</v>
@@ -5448,7 +5448,7 @@
         <v>0.58757651570111658</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G40">
         <f>STDEV(F$1:F$3)/SQRT(COUNT(F$1:F$3))</f>
         <v>3.7887903257052775E-2</v>
@@ -5466,7 +5466,7 @@
         <v>0.43496530591929694</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H42" t="s">
         <v>0</v>
       </c>
@@ -5480,7 +5480,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G43" t="s">
         <v>11</v>
       </c>
@@ -5501,7 +5501,7 @@
         <v>36.531056604672891</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H44">
         <f>STDEV(G$1:G$3)/SQRT(COUNT(G$1:G$3))</f>
         <v>6.3684913556027456E-2</v>
@@ -5519,7 +5519,7 @@
         <v>0.38271851005949836</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I46" t="s">
         <v>0</v>
       </c>
@@ -5533,7 +5533,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H47" t="s">
         <v>12</v>
       </c>
@@ -5554,7 +5554,7 @@
         <v>2.7234006245481113</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I48">
         <f>STDEV(H$1:H$3)/SQRT(COUNT(H$1:H$3))</f>
         <v>2.1960644203328581E-2</v>
@@ -5572,7 +5572,7 @@
         <v>2.4272696559391922</v>
       </c>
     </row>
-    <row r="50" spans="9:16" x14ac:dyDescent="0.3">
+    <row r="50" spans="9:16" x14ac:dyDescent="0.25">
       <c r="J50" t="s">
         <v>0</v>
       </c>
@@ -5586,7 +5586,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="9:16" x14ac:dyDescent="0.3">
+    <row r="51" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I51" t="s">
         <v>13</v>
       </c>
@@ -5607,7 +5607,7 @@
         <v>3.6863582148794434E-2</v>
       </c>
     </row>
-    <row r="52" spans="9:16" x14ac:dyDescent="0.3">
+    <row r="52" spans="9:16" x14ac:dyDescent="0.25">
       <c r="J52">
         <f>STDEV(I$1:I$3)/SQRT(COUNT(I$1:I$3))</f>
         <v>4.7050957194946751E-2</v>
@@ -5625,7 +5625,7 @@
         <v>3.6858095593027031E-2</v>
       </c>
     </row>
-    <row r="54" spans="9:16" x14ac:dyDescent="0.3">
+    <row r="54" spans="9:16" x14ac:dyDescent="0.25">
       <c r="K54" t="s">
         <v>0</v>
       </c>
@@ -5639,7 +5639,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="55" spans="9:16" x14ac:dyDescent="0.3">
+    <row r="55" spans="9:16" x14ac:dyDescent="0.25">
       <c r="J55" t="s">
         <v>14</v>
       </c>
@@ -5660,7 +5660,7 @@
         <v>4.4114283686700801</v>
       </c>
     </row>
-    <row r="56" spans="9:16" x14ac:dyDescent="0.3">
+    <row r="56" spans="9:16" x14ac:dyDescent="0.25">
       <c r="K56">
         <f>STDEV(J$1:J$3)/SQRT(COUNT(J$1:J$3))</f>
         <v>1.0122917203003896</v>
@@ -5678,7 +5678,7 @@
         <v>0.66382289234155878</v>
       </c>
     </row>
-    <row r="58" spans="9:16" x14ac:dyDescent="0.3">
+    <row r="58" spans="9:16" x14ac:dyDescent="0.25">
       <c r="L58" t="s">
         <v>0</v>
       </c>
@@ -5692,7 +5692,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="59" spans="9:16" x14ac:dyDescent="0.3">
+    <row r="59" spans="9:16" x14ac:dyDescent="0.25">
       <c r="K59" t="s">
         <v>15</v>
       </c>
@@ -5713,7 +5713,7 @@
         <v>15.511571540116371</v>
       </c>
     </row>
-    <row r="60" spans="9:16" x14ac:dyDescent="0.3">
+    <row r="60" spans="9:16" x14ac:dyDescent="0.25">
       <c r="L60">
         <f>STDEV(K$1:K$3)/SQRT(COUNT(K$1:K$3))</f>
         <v>2.7496727867516153</v>
@@ -5731,7 +5731,7 @@
         <v>1.6948098052136258</v>
       </c>
     </row>
-    <row r="62" spans="9:16" x14ac:dyDescent="0.3">
+    <row r="62" spans="9:16" x14ac:dyDescent="0.25">
       <c r="M62" t="s">
         <v>0</v>
       </c>
@@ -5745,7 +5745,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="63" spans="9:16" x14ac:dyDescent="0.3">
+    <row r="63" spans="9:16" x14ac:dyDescent="0.25">
       <c r="L63" t="s">
         <v>16</v>
       </c>
@@ -5766,7 +5766,7 @@
         <v>589426293.74343693</v>
       </c>
     </row>
-    <row r="64" spans="9:16" x14ac:dyDescent="0.3">
+    <row r="64" spans="9:16" x14ac:dyDescent="0.25">
       <c r="M64">
         <f>STDEV(L$1:L$3)/SQRT(COUNT(L$1:L$3))</f>
         <v>98309726.586222306</v>
@@ -5784,7 +5784,7 @@
         <v>96079951.821274728</v>
       </c>
     </row>
-    <row r="66" spans="13:20" x14ac:dyDescent="0.3">
+    <row r="66" spans="13:20" x14ac:dyDescent="0.25">
       <c r="N66" t="s">
         <v>0</v>
       </c>
@@ -5798,7 +5798,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="67" spans="13:20" x14ac:dyDescent="0.3">
+    <row r="67" spans="13:20" x14ac:dyDescent="0.25">
       <c r="M67" t="s">
         <v>17</v>
       </c>
@@ -5819,7 +5819,7 @@
         <v>0.99613211527437251</v>
       </c>
     </row>
-    <row r="68" spans="13:20" x14ac:dyDescent="0.3">
+    <row r="68" spans="13:20" x14ac:dyDescent="0.25">
       <c r="N68">
         <f>STDEV(M$1:M$3)/SQRT(COUNT(M$1:M$3))</f>
         <v>4.9336964566099094E-4</v>
@@ -5837,7 +5837,7 @@
         <v>1.6834090207652412E-3</v>
       </c>
     </row>
-    <row r="70" spans="13:20" x14ac:dyDescent="0.3">
+    <row r="70" spans="13:20" x14ac:dyDescent="0.25">
       <c r="O70" t="s">
         <v>0</v>
       </c>
@@ -5851,7 +5851,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="71" spans="13:20" x14ac:dyDescent="0.3">
+    <row r="71" spans="13:20" x14ac:dyDescent="0.25">
       <c r="N71" t="s">
         <v>18</v>
       </c>
@@ -5872,7 +5872,7 @@
         <v>0.99279001095292796</v>
       </c>
     </row>
-    <row r="72" spans="13:20" x14ac:dyDescent="0.3">
+    <row r="72" spans="13:20" x14ac:dyDescent="0.25">
       <c r="O72">
         <f>STDEV(N$1:N$3)/SQRT(COUNT(N$1:N$3))</f>
         <v>3.3666404374116535E-3</v>
@@ -5890,7 +5890,7 @@
         <v>2.5169013838522809E-3</v>
       </c>
     </row>
-    <row r="74" spans="13:20" x14ac:dyDescent="0.3">
+    <row r="74" spans="13:20" x14ac:dyDescent="0.25">
       <c r="P74" t="s">
         <v>0</v>
       </c>
@@ -5904,7 +5904,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="75" spans="13:20" x14ac:dyDescent="0.3">
+    <row r="75" spans="13:20" x14ac:dyDescent="0.25">
       <c r="O75" t="s">
         <v>19</v>
       </c>
@@ -5925,7 +5925,7 @@
         <v>0.96365001617416335</v>
       </c>
     </row>
-    <row r="76" spans="13:20" x14ac:dyDescent="0.3">
+    <row r="76" spans="13:20" x14ac:dyDescent="0.25">
       <c r="P76">
         <f>STDEV(O$1:O$3)/SQRT(COUNT(O$1:O$3))</f>
         <v>7.9031756794890548E-4</v>
@@ -5943,7 +5943,7 @@
         <v>1.1101966956670883E-2</v>
       </c>
     </row>
-    <row r="78" spans="13:20" x14ac:dyDescent="0.3">
+    <row r="78" spans="13:20" x14ac:dyDescent="0.25">
       <c r="Q78" t="s">
         <v>0</v>
       </c>
@@ -5957,7 +5957,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="79" spans="13:20" x14ac:dyDescent="0.3">
+    <row r="79" spans="13:20" x14ac:dyDescent="0.25">
       <c r="P79" t="s">
         <v>20</v>
       </c>
@@ -5978,7 +5978,7 @@
         <v>8.048833233638919E-2</v>
       </c>
     </row>
-    <row r="80" spans="13:20" x14ac:dyDescent="0.3">
+    <row r="80" spans="13:20" x14ac:dyDescent="0.25">
       <c r="Q80">
         <f>STDEV(P$1:P$3)/SQRT(COUNT(P$1:P$3))</f>
         <v>6.1728202309232275E-3</v>
@@ -5996,7 +5996,7 @@
         <v>2.0142396623818812E-2</v>
       </c>
     </row>
-    <row r="82" spans="17:22" x14ac:dyDescent="0.3">
+    <row r="82" spans="17:22" x14ac:dyDescent="0.25">
       <c r="R82" t="s">
         <v>0</v>
       </c>
@@ -6010,7 +6010,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="83" spans="17:22" x14ac:dyDescent="0.3">
+    <row r="83" spans="17:22" x14ac:dyDescent="0.25">
       <c r="Q83" t="s">
         <v>21</v>
       </c>
@@ -6031,7 +6031,7 @@
         <v>0.12409028265180551</v>
       </c>
     </row>
-    <row r="84" spans="17:22" x14ac:dyDescent="0.3">
+    <row r="84" spans="17:22" x14ac:dyDescent="0.25">
       <c r="R84">
         <f>STDEV(Q$1:Q$3)/SQRT(COUNT(Q$1:Q$3))</f>
         <v>2.9915012366076285E-2</v>
@@ -6049,7 +6049,7 @@
         <v>2.5351708893121959E-2</v>
       </c>
     </row>
-    <row r="86" spans="17:22" x14ac:dyDescent="0.3">
+    <row r="86" spans="17:22" x14ac:dyDescent="0.25">
       <c r="S86" t="s">
         <v>0</v>
       </c>
@@ -6063,7 +6063,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="87" spans="17:22" x14ac:dyDescent="0.3">
+    <row r="87" spans="17:22" x14ac:dyDescent="0.25">
       <c r="R87" t="s">
         <v>22</v>
       </c>
@@ -6084,7 +6084,7 @@
         <v>0.25899203198153653</v>
       </c>
     </row>
-    <row r="88" spans="17:22" x14ac:dyDescent="0.3">
+    <row r="88" spans="17:22" x14ac:dyDescent="0.25">
       <c r="S88">
         <f>STDEV(R$1:R$3)/SQRT(COUNT(R$1:R$3))</f>
         <v>1.6225127282453847E-2</v>
@@ -6124,27 +6124,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5765114A-1C79-41FF-AE6B-9959874AE43E}">
   <dimension ref="A1:M30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
+    <sheetView topLeftCell="C4" workbookViewId="0">
       <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.21875" customWidth="1"/>
-    <col min="3" max="3" width="46.44140625" customWidth="1"/>
-    <col min="4" max="4" width="14.77734375" customWidth="1"/>
-    <col min="5" max="5" width="15.33203125" customWidth="1"/>
-    <col min="6" max="6" width="18.33203125" customWidth="1"/>
-    <col min="7" max="7" width="13.44140625" customWidth="1"/>
-    <col min="8" max="8" width="14.44140625" customWidth="1"/>
-    <col min="9" max="9" width="18.77734375" customWidth="1"/>
-    <col min="10" max="10" width="13.33203125" customWidth="1"/>
-    <col min="11" max="11" width="14.6640625" customWidth="1"/>
-    <col min="12" max="12" width="13.33203125" customWidth="1"/>
-    <col min="13" max="13" width="18.88671875" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" customWidth="1"/>
+    <col min="3" max="3" width="46.42578125" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" customWidth="1"/>
+    <col min="9" max="9" width="18.7109375" customWidth="1"/>
+    <col min="10" max="10" width="13.28515625" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" customWidth="1"/>
+    <col min="12" max="12" width="13.28515625" customWidth="1"/>
+    <col min="13" max="13" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>4</v>
       </c>
@@ -6173,7 +6173,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -6205,7 +6205,7 @@
         <v>4.7050957194968969E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -6237,7 +6237,7 @@
         <v>1.0203328112778454E-10</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -6269,7 +6269,7 @@
         <v>1.6327525974059916E-9</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -6301,7 +6301,7 @@
         <v>3.6863582148794434E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -6333,7 +6333,7 @@
         <v>4.7050957194946751E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>1</v>
       </c>
@@ -6365,7 +6365,7 @@
         <v>1.020014826687171E-10</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>2</v>
       </c>
@@ -6397,7 +6397,7 @@
         <v>1.6327205558882892E-9</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>3</v>
       </c>
@@ -6429,7 +6429,7 @@
         <v>3.6858095593027031E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>4</v>
       </c>
@@ -6458,7 +6458,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -6499,7 +6499,7 @@
         <v>0.05 ± 0.05</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>1</v>
       </c>
@@ -6540,7 +6540,7 @@
         <v>0E-3 ± 0E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>2</v>
       </c>
@@ -6581,7 +6581,7 @@
         <v>0E-3 ± 0E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>3</v>
       </c>
@@ -6622,7 +6622,7 @@
         <v>0.04 ± 0.04</v>
       </c>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B17" t="str">
         <f>_xlfn.CONCAT(B2, " ± ", B7)</f>
         <v>49.3010986143002 ± 0.74523230645633</v>
@@ -6660,7 +6660,7 @@
         <v>0.047050957194969 ± 0.0470509571949468</v>
       </c>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B18" t="str">
         <f t="shared" ref="B18:J20" si="3">_xlfn.CONCAT(B3, " ± ", B8)</f>
         <v>49.5622867653102 ± 0.193487254082796</v>
@@ -6698,7 +6698,7 @@
         <v>1.02033281127785E-10 ± 1.02001482668717E-10</v>
       </c>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B19" t="str">
         <f t="shared" si="3"/>
         <v>50.6117086073112 ± 0.388205492520122</v>
@@ -6736,7 +6736,7 @@
         <v>1.63275259740599E-09 ± 1.63272055588829E-09</v>
       </c>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B20" t="str">
         <f t="shared" si="3"/>
         <v>50.3930503993814 ± 0.26577672103245</v>
@@ -6774,7 +6774,7 @@
         <v>0.0368635821487944 ± 0.036858095593027</v>
       </c>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
       <c r="E26" t="s">
         <v>4</v>
       </c>
@@ -6803,7 +6803,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D27" t="s">
         <v>0</v>
       </c>
@@ -6843,7 +6843,7 @@
         <v>0.05 ± 0.05</v>
       </c>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D28" t="s">
         <v>1</v>
       </c>
@@ -6883,7 +6883,7 @@
         <v>1.02E-10 ± 1.02E-10</v>
       </c>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D29" t="s">
         <v>2</v>
       </c>
@@ -6923,7 +6923,7 @@
         <v>1.63E-09 ± 1.63E-09</v>
       </c>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D30" t="s">
         <v>3</v>
       </c>

--- a/Synaptophysin_Image_Analysis/Lacex_summary_101119_recover_old_T1Lin10_1.xlsx
+++ b/Synaptophysin_Image_Analysis/Lacex_summary_101119_recover_old_T1Lin10_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Documents\MATLAB\Synaptophysin_Image_Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD963B2D-4D5D-42DA-AD6A-946E98596736}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F28E059-8345-46D8-94ED-A35330662B84}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1EC6F960-15EA-44B1-9D05-79A95A2ECB7E}"/>
   </bookViews>
@@ -3562,7 +3562,7 @@
   <dimension ref="A1:AB88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J52" sqref="J52:M52"/>
+      <selection activeCell="T5" sqref="T5:AB6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
